--- a/pred_ohlcv/54_21/2020-01-24 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 TMTG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>701372.7339895625</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>708808.6099895625</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>696914.6489895625</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>697674.8889895625</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>701739.7269895625</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>708640.9499895625</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>719210.0329895625</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>716918.3869895625</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>726127.9139895625</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>713124.3679895626</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>691655.9899895625</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>696544.0249895626</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>706292.5389895625</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>718879.9289895626</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>719466.9419895626</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>722856.0289895626</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>728864.2469895626</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>737260.6989895627</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>735302.0919895627</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>727952.9079895627</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>740476.9049895627</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>740608.5509895626</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>734839.7189895626</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>745796.1769895626</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>730005.0499895626</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>750647.1444329758</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>746580.7714329758</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>738392.8204329758</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>726385.4974329758</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>728044.2134329758</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>563238.1803329758</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>460070.6972329758</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>458619.2222329758</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>458619.2222329758</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>451993.8152329758</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>398273.7220329758</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>318232.5583329758</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>212380.0935329758</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>226463.5765329758</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>243317.4855329758</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>245018.2405329758</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>248631.0845329758</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>242156.5085329758</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>242341.2395329758</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>244087.4515329758</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>248699.0505329758</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>241715.2775329758</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>238084.2695329758</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>230951.3815329758</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>240262.8405329758</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>240419.4825329758</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>235590.7315329758</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>201871.7061329758</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>115845.1615329758</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>114841.2635329758</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>111675.3625329758</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>111675.3625329758</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>118154.9725329758</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>120844.5635329758</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>114704.0725329758</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>114704.0725329758</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>114704.0725329758</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>117072.5665329758</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>120376.0345329758</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>125830.8585329758</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>147821.1575329758</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>194382.1565329758</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>245438.6215329758</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>190796.3945329759</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>187865.0475329758</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>178213.3195329758</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>191346.1525329759</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>191745.6595329759</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>189395.9875329759</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>193785.7995329759</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>186757.5555329759</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>186757.5555329759</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>189732.3755329759</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>184606.7175329759</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>184758.5415329759</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>182999.6575329759</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>182999.6575329759</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>188412.9645329759</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>186809.9005329759</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>189862.9695329759</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>185146.8615329759</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>185279.1565329759</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>181721.6135329759</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>187444.7625329759</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>198182.1345329759</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>198314.3615329759</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>202334.3495329759</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>207355.3535329759</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>200245.2735329759</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>199869.8595329759</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>201868.8205329759</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>209651.6215329759</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>198367.7775329759</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>196029.9935329759</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>133772.2693329759</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-101512.5808670241</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-100752.4818670241</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-96969.80486702408</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-101361.8388670241</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-101361.8388670241</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-94337.63286702408</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-93893.63286702408</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-103390.8918670241</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-114102.1288670241</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-111769.2198670241</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-120325.9988670241</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-109145.1378670241</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-109277.1248670241</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-110823.7478670241</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-108152.1108670241</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-111672.8168670241</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-112690.2498670241</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-110489.5748670241</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-106957.0628670241</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-111290.3308670241</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-110057.7358670241</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-114584.0178670241</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-120574.9848670241</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-120021.0658670241</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-122243.5758670241</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-118978.4098670241</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-114159.7848670241</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-114642.6118670241</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-116054.9638670241</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-113886.4998670241</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-114018.8298670241</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-112870.8548670241</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-114672.0738670241</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-117080.1128670241</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-111878.5808670241</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-119638.6478670241</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-118534.9488670241</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-115541.6218670241</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-119784.7798670241</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-119784.7798670241</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-119347.3168670241</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-120816.3508670241</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-117952.6708670241</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-113525.8728670241</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-114316.6678670241</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-114316.6678670241</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-110871.4468670241</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-109915.7428670241</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-111693.9228670241</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-111693.9228670241</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-105323.6058670241</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-106737.4162670241</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-103571.5102670241</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-103571.5102670241</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-97454.25926702406</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-97742.59926702405</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-95412.93226702405</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-98956.18126702405</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-93924.40426702405</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-94287.67526702404</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-92792.75626702404</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-95698.75326702405</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-95698.75326702405</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-95698.75326702405</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-91292.41826702404</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-86077.70926702404</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-86393.40326702404</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-86393.40326702404</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-78458.52426702404</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-87410.49726702404</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-84920.50226702404</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-81332.07326702404</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-85527.92226702404</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-85269.30726702404</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-79633.65826702403</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-86266.05626702403</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-86266.05626702403</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-86266.05626702403</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-82862.71026702403</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-78507.28726702403</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-84072.17926702404</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-84072.17926702404</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-82772.63826702404</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-80610.75126702404</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-80477.77426702404</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-82084.17526702404</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-85855.22026702404</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-81200.06726702403</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-81682.88926702403</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-80569.13326702404</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-78161.30526702404</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-82184.07126702405</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-80434.85926702405</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-77647.33726702405</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-81425.86026702405</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-81425.86026702405</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-79997.39726702405</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-77348.10026702404</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-72478.04326702404</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-71409.64526702404</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-67399.95126702404</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-73362.75826702404</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-73230.49726702404</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-75070.50326702403</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-78336.59226702404</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-73921.43726702404</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-74589.93826702404</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-74589.93826702404</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-69878.54626702404</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-64477.21726702404</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-63612.74226702404</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-65401.96826702404</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-67535.93226702404</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-67353.66926702403</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-68121.49026702403</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-68121.49026702403</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-65987.37626702402</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-66798.66526702403</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-64830.44826702403</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-68856.31626702403</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-68856.31626702403</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-67613.29526702403</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-70184.53926702404</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-66530.85326702404</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-66253.15826702403</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-67321.36226702403</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-67321.36226702403</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7633.286267024028</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-36005.43226702403</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-36005.43226702403</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-36005.43226702403</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>885327.102732976</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>2120822.745732976</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>2120822.745732976</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>2238642.675732976</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2238642.675732976</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1925717.730732976</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>2295529.150732976</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2235753.000732976</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1990585.350732977</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>2394319.730732976</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>2981360.790732977</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>2249933.140732977</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>2106631.030732977</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>2106631.030732977</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>2866005.050732977</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3835055.200732977</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>2848814.050732977</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>2848814.050732977</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>2848814.050732977</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>3110320.430732977</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>2664408.360732977</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1987623.540732977</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1676922.310732977</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1234016.060732977</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1331693.050732977</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1757608.570732977</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2586711.990732977</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2986949.510732977</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2530623.900732977</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1504485.820732977</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1698133.830732977</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1210396.500732977</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1826612.020732977</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1016562.490732977</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>2249393.314732977</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2044513.674732977</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1240818.389732977</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2473253.252732976</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2624997.942732976</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1845562.402732976</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3077183.323732976</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>4307961.039732976</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>5538968.844732976</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>4308067.096732976</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3959783.816732976</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>4749830.166732975</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>5918132.411732975</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>7460136.394032976</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>6232452.022032976</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>6091522.882032976</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>6274519.774032976</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>6274519.774032976</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>6266792.473032977</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>6255006.119032976</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>6252821.144032977</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>6221877.263032977</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>6220815.075032976</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>6011804.244132976</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>6026886.473132976</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>6034581.726132976</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>6021578.822132976</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>6040980.759132976</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>6059921.072032976</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>6144448.126132976</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>6264348.782878463</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6235654.804532976</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6226766.419532976</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>8670439.839289563</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>8935035.269451771</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>9220126.998289563</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>9233792.478289563</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>9752235.871503238</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>10355115.52008436</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>10005214.09388436</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>10014995.11288436</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>10028473.65588436</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>10049428.78388436</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>10049428.78388436</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>10046804.21788436</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>10038243.92588436</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>10322383.70628436</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>11954338.30268436</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>12311815.88698436</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>12300760.58498436</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>12300760.58498436</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>12370097.75638436</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>19261891.76945708</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>80250973.59531958</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>96907361.83407257</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>96509708.81527257</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>97063886.36866179</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>95121561.3197618</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>94436071.1217618</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>94466686.41847609</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>94461903.5614761</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>94321482.0651761</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>95260171.39031516</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>95040340.50201516</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>93070824.77381516</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>92259876.17155376</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>94523043.26032978</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>157427464.7571117</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>160992908.7049488</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>166797800.7465419</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>166157673.5863822</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>166019563.0233822</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>165005755.3689823</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>165263135.6167822</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>165056027.2773823</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>163688686.6178823</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>164571280.9363724</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>162151384.5383724</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>162759600.2922724</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>163858954.1029724</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>164076626.6843724</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>163677776.8249724</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>162796971.4217724</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>160082010.1103379</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>164131162.7050217</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>163641972.7931039</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>162055355.1444039</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>162276316.6191039</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>162864536.6432039</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>162336559.7383039</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>163070639.2477113</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>167208637.9779299</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>168314190.8544299</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>167914345.4126299</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>167927144.5598299</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>167153852.4653013</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>167285811.6210013</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>167086060.1376207</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>166649125.9283206</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 TMTG ohlcv.xlsx
@@ -7906,7 +7906,7 @@
         <v>1906440.930732977</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1987623.540732977</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1676922.310732977</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2219507.670732977</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1234016.060732977</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1331693.050732977</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1042974.930732977</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1757608.570732977</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>2586711.990732977</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>2986949.510732977</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>3324793.810732977</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2530623.900732977</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1504485.820732977</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1826612.020732977</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1016562.490732977</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2044513.674732977</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2473696.234732977</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>6240123.976032977</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>6221877.263032977</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>6220815.075032976</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>6011804.244132976</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>6026886.473132976</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>6023373.814132976</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>6034581.726132976</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>6021578.822132976</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>6040980.759132976</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>6059921.072032976</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>6144448.126132976</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>6144989.642378463</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>6264348.782878463</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>6235654.804532976</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6226766.419532976</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>8670439.839289563</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>8935035.269451771</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>9220126.998289563</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>9233792.478289563</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>9752235.871503238</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>80250973.59531958</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>99061329.82207258</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>96907361.83407257</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>96509708.81527257</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>97063886.36866179</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>95121561.3197618</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>94436071.1217618</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>94466686.41847609</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>94461903.5614761</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>94321482.0651761</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>95260171.39031516</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>95040340.50201516</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>93070824.77381516</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>92259876.17155376</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>94523043.26032978</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>161958056.0699746</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>157427464.7571117</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>160992908.7049488</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>166797800.7465419</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>166157673.5863822</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>166019563.0233822</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>165005755.3689823</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>165263135.6167822</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>165056027.2773823</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>163688686.6178823</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>164571280.9363724</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>162151384.5383724</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>162759600.2922724</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>163858954.1029724</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>164076626.6843724</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>163677776.8249724</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>162796971.4217724</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>160082010.1103379</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>164131162.7050217</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>163641972.7931039</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>162055355.1444039</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>162276316.6191039</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>162864536.6432039</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>162336559.7383039</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>163070639.2477113</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>163068930.8769113</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>163951990.8600442</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>166627900.1242298</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>167208637.9779299</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
